--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\BigHitGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A667E451-1574-4095-BBCB-A5E784FB1D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CE73B3-D2EA-430F-ADC9-44D81A20CB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="1725" windowWidth="27765" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="570" yWindow="4050" windowWidth="35595" windowHeight="9405" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -116,23 +116,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gold1_new_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold2_new_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp1_new_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp2_new_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicstone_new_new</t>
+    <t>magicstone_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold1_new_new_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold2_new_new_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp1_new_new_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp2_new_new_new</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +503,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -558,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
@@ -575,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
@@ -592,7 +592,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>16</v>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CE73B3-D2EA-430F-ADC9-44D81A20CB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6084F73-F36E-4331-8D5D-728C2AB650D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="4050" windowWidth="35595" windowHeight="9405" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>magicstone_new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gold1_new_new_new</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,6 +129,34 @@
   </si>
   <si>
     <t>exp2_new_new_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isyomulAbil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yomulId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yomul0_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yomul1_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yomul2_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yomul3_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlockYomulLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -519,7 +543,7 @@
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,13 +559,22 @@
       <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -552,13 +585,22 @@
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
@@ -569,13 +611,22 @@
       <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
@@ -586,13 +637,22 @@
       <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -603,22 +663,118 @@
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
         <v>23</v>
       </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>600</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>900</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>100000</v>
+      </c>
+      <c r="E8">
+        <v>600</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>600</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6084F73-F36E-4331-8D5D-728C2AB650D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E783ADF8-70B5-4725-A15D-193F3CBDF61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7920" yWindow="2415" windowWidth="27555" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E783ADF8-70B5-4725-A15D-193F3CBDF61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE17301-CBB9-4D2E-84C2-224B4C10EF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="2415" windowWidth="27555" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7920" yWindow="2415" windowWidth="27540" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -736,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="E8">
         <v>600</v>
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE17301-CBB9-4D2E-84C2-224B4C10EF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BB01C0-7D80-419A-9DDA-0915E8D3B64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="2415" windowWidth="27540" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,14 @@
   </si>
   <si>
     <t>unlockYomulLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yomul4_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -775,6 +783,32 @@
       </c>
       <c r="H9">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0.03</v>
+      </c>
+      <c r="E10">
+        <v>600</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BB01C0-7D80-419A-9DDA-0915E8D3B64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7D558B-8407-4FD6-9730-047EB2C3F549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="2925" windowWidth="38400" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,10 @@
   </si>
   <si>
     <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -551,7 +555,7 @@
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,8 +580,11 @@
       <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -602,8 +609,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -628,8 +638,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -654,8 +667,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -680,8 +696,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -706,8 +725,11 @@
       <c r="H6">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -732,8 +754,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -758,8 +783,11 @@
       <c r="H8">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -784,8 +812,11 @@
       <c r="H9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -796,7 +827,7 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E10">
         <v>600</v>
@@ -809,6 +840,9 @@
       </c>
       <c r="H10">
         <v>100</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7D558B-8407-4FD6-9730-047EB2C3F549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAAF18F-0917-4192-A4F7-12D709DBBAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2925" windowWidth="38400" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2628" yWindow="2628" windowWidth="17280" windowHeight="9912" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -538,24 +538,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" customWidth="1"/>
+    <col min="2" max="2" width="28.8984375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +584,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -726,10 +726,10 @@
         <v>90</v>
       </c>
       <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -784,10 +784,10 @@
         <v>1500</v>
       </c>
       <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -813,10 +813,10 @@
         <v>1000</v>
       </c>
       <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -842,7 +842,7 @@
         <v>100</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -860,9 +860,9 @@
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -870,7 +870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -878,7 +878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -886,7 +886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -894,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -902,7 +902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>12</v>
       </c>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAAF18F-0917-4192-A4F7-12D709DBBAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7D7AB9-1568-4B9F-BFAD-431A194789D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2628" yWindow="2628" windowWidth="17280" windowHeight="9912" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7D7AB9-1568-4B9F-BFAD-431A194789D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BB3D2A-7476-4EAF-835C-3C3902BCE1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,10 @@
   </si>
   <si>
     <t>useCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yomul5_buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,26 +540,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" customWidth="1"/>
-    <col min="2" max="2" width="28.8984375" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -613,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -642,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -671,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -700,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -729,7 +733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -758,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -787,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -816,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -842,6 +846,35 @@
         <v>100</v>
       </c>
       <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
+        <v>600</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
         <v>3</v>
       </c>
     </row>
@@ -860,9 +893,9 @@
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -870,7 +903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -878,7 +911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -886,7 +919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -894,7 +927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -902,7 +935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BB3D2A-7476-4EAF-835C-3C3902BCE1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B68AA1E-9984-4F12-9309-FB46A8717A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5400" yWindow="4590" windowWidth="27480" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,10 @@
   </si>
   <si>
     <t>yomul5_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yomul6_buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -555,7 +559,7 @@
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="29.125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -875,6 +879,35 @@
         <v>100</v>
       </c>
       <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <v>600</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="I12">
         <v>3</v>
       </c>
     </row>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B68AA1E-9984-4F12-9309-FB46A8717A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472157E2-E578-465C-9E22-D725B34B3578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="4590" windowWidth="27480" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -890,10 +890,10 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>600</v>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472157E2-E578-465C-9E22-D725B34B3578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC80DE8-ADDA-49C5-80CF-3219CBFF3230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6255" yWindow="4710" windowWidth="29865" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -734,7 +734,7 @@
         <v>90</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -792,7 +792,7 @@
         <v>1500</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
         <v>1000</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -850,7 +850,7 @@
         <v>100</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -879,7 +879,7 @@
         <v>100</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -908,7 +908,7 @@
         <v>1000</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC80DE8-ADDA-49C5-80CF-3219CBFF3230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3865CA2A-FB30-4911-BB97-0647FA536004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="4710" windowWidth="29865" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,14 @@
   </si>
   <si>
     <t>yomul6_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yomul7_buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -908,6 +916,35 @@
         <v>1000</v>
       </c>
       <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>600</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13">
         <v>5</v>
       </c>
     </row>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3865CA2A-FB30-4911-BB97-0647FA536004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082FE001-9348-4DF1-97BC-CE3BDEA7E602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -930,7 +930,7 @@
         <v>25</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E13">
         <v>600</v>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082FE001-9348-4DF1-97BC-CE3BDEA7E602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68E6741-FE95-48E0-BA3F-BB4428BEFC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H13">
         <v>1000</v>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68E6741-FE95-48E0-BA3F-BB4428BEFC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E5053F-80C8-418D-95C6-4DCBD23E23B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,10 @@
   </si>
   <si>
     <t>yomul7_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffAwakeValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -571,7 +575,7 @@
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,8 +603,11 @@
       <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -628,8 +635,11 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -657,8 +667,11 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -686,8 +699,11 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -715,8 +731,11 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -744,8 +763,11 @@
       <c r="I6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -773,8 +795,11 @@
       <c r="I7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -802,8 +827,11 @@
       <c r="I8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -831,8 +859,11 @@
       <c r="I9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -860,8 +891,11 @@
       <c r="I10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -889,8 +923,11 @@
       <c r="I11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -918,8 +955,11 @@
       <c r="I12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -946,6 +986,9 @@
       </c>
       <c r="I13">
         <v>5</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E5053F-80C8-418D-95C6-4DCBD23E23B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287E2E2D-C1C5-492F-8B9E-47F65B37E57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isyomulAbil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yomulId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,6 +185,39 @@
   </si>
   <si>
     <t>buffAwakeValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guild_buff0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guild_buff1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Yomul</t>
+  </si>
+  <si>
+    <t>Guild</t>
+  </si>
+  <si>
+    <t>BuffTypeEnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guild_buff2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -569,13 +598,13 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="36.875" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="29.125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,22 +621,25 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -623,8 +655,8 @@
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
+      <c r="F2" t="s">
+        <v>44</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -638,8 +670,11 @@
       <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -655,8 +690,8 @@
       <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
+      <c r="F3" t="s">
+        <v>44</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -670,8 +705,11 @@
       <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -687,8 +725,8 @@
       <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
+      <c r="F4" t="s">
+        <v>44</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -702,8 +740,11 @@
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -719,8 +760,8 @@
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>44</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -734,13 +775,16 @@
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -751,8 +795,8 @@
       <c r="E6">
         <v>600</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>45</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -766,13 +810,16 @@
       <c r="J6">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>9</v>
@@ -783,8 +830,8 @@
       <c r="E7">
         <v>900</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>45</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -798,13 +845,16 @@
       <c r="J7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -815,8 +865,8 @@
       <c r="E8">
         <v>600</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>45</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -830,13 +880,16 @@
       <c r="J8">
         <v>500000</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>18</v>
@@ -847,8 +900,8 @@
       <c r="E9">
         <v>600</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>45</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -862,13 +915,16 @@
       <c r="J9">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -879,8 +935,8 @@
       <c r="E10">
         <v>600</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>45</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -894,13 +950,16 @@
       <c r="J10">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>24</v>
@@ -911,8 +970,8 @@
       <c r="E11">
         <v>600</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="s">
+        <v>45</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -926,13 +985,16 @@
       <c r="J11">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>25</v>
@@ -943,8 +1005,8 @@
       <c r="E12">
         <v>600</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="s">
+        <v>45</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -958,13 +1020,16 @@
       <c r="J12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C13">
         <v>25</v>
@@ -975,8 +1040,8 @@
       <c r="E13">
         <v>600</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>45</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -989,6 +1054,114 @@
       </c>
       <c r="J13">
         <v>3</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287E2E2D-C1C5-492F-8B9E-47F65B37E57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90807C88-AEA0-4AE3-A949-B877321E32A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,26 @@
   </si>
   <si>
     <t>Guild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +608,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -602,6 +622,7 @@
     <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="29.125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1070,13 +1091,13 @@
         <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -1102,13 +1123,13 @@
         <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
         <v>49</v>
@@ -1137,13 +1158,13 @@
         <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
         <v>46</v>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90807C88-AEA0-4AE3-A949-B877321E32A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EDCBB2-9E81-40C9-B632-1C6D025309AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5235" yWindow="2550" windowWidth="30525" windowHeight="11610" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,10 @@
   </si>
   <si>
     <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guild_buff3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1182,6 +1186,41 @@
         <v>20</v>
       </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EDCBB2-9E81-40C9-B632-1C6D025309AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD591340-A9B3-4245-8381-34957F0F634F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="2550" windowWidth="30525" windowHeight="11610" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,14 @@
   </si>
   <si>
     <t>guild_buff3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ob</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1221,6 +1229,41 @@
         <v>20</v>
       </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD591340-A9B3-4245-8381-34957F0F634F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E66674-D8F3-431B-B0B6-A6C8957D029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>ob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +624,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1246,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
         <v>56</v>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E66674-D8F3-431B-B0B6-A6C8957D029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECED91F-1265-44CA-BE11-15AA6B8BA205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,14 @@
   </si>
   <si>
     <t>1800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffUseCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffAddValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,7 +649,7 @@
     <col min="10" max="10" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,8 +683,14 @@
       <c r="K1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -710,8 +724,14 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -745,8 +765,14 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -780,8 +806,14 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -815,8 +847,14 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -850,8 +888,14 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -885,8 +929,14 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -920,8 +970,14 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -955,8 +1011,14 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -990,8 +1052,14 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1025,8 +1093,14 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1060,8 +1134,14 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1095,8 +1175,14 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1130,8 +1216,14 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1165,8 +1257,14 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1200,8 +1298,14 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1235,8 +1339,14 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1268,6 +1378,12 @@
         <v>0</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECED91F-1265-44CA-BE11-15AA6B8BA205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B160F56-C59C-4D07-99D6-6E17E3FF0C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="18810" yWindow="0" windowWidth="19590" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,22 @@
   </si>
   <si>
     <t>buffAddValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chuseok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1384,6 +1400,88 @@
         <v>0</v>
       </c>
       <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B160F56-C59C-4D07-99D6-6E17E3FF0C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF9CF1-7167-4FAA-A012-815B4CF08F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18810" yWindow="0" windowWidth="19590" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -265,19 +265,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chuseok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch2</t>
+    <t>Month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mf11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1408,7 +1408,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19">
         <v>34</v>
@@ -1420,7 +1420,7 @@
         <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>-1</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>64</v>
@@ -1461,7 +1461,7 @@
         <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G20">
         <v>-1</v>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF9CF1-7167-4FAA-A012-815B4CF08F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7380504F-034C-47FE-AEF9-920CE3D1C4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -648,7 +648,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1411,7 +1411,7 @@
         <v>63</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>64</v>
       </c>
       <c r="C20">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>0</v>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7380504F-034C-47FE-AEF9-920CE3D1C4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E643B2-442E-404E-BA72-FD47F78C38E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,29 @@
   </si>
   <si>
     <t>ma11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>cold0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1482,6 +1505,88 @@
         <v>0</v>
       </c>
       <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>500</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E643B2-442E-404E-BA72-FD47F78C38E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D91ED4B-2D48-463E-B850-3112C1A9BA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,22 @@
   </si>
   <si>
     <t>Cold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mf12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1587,6 +1603,88 @@
         <v>0</v>
       </c>
       <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24">
+        <v>37</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D91ED4B-2D48-463E-B850-3112C1A9BA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901CEE99-8078-4F9A-A509-FFE43A8F19E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -687,7 +687,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\New\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901CEE99-8078-4F9A-A509-FFE43A8F19E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832DFA37-3798-4077-8190-A8ED51FF80E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,22 +301,6 @@
   </si>
   <si>
     <t>Cold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mf12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1603,88 +1587,6 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23">
-        <v>37</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24">
-        <v>37</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\New\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832DFA37-3798-4077-8190-A8ED51FF80E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7002F90D-27C2-4C3D-9AB5-25131E7EBA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,23 @@
   </si>
   <si>
     <t>Cold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>winter0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winter1</t>
+  </si>
+  <si>
+    <t>Winter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1587,6 +1604,88 @@
         <v>0</v>
       </c>
       <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>500</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7002F90D-27C2-4C3D-9AB5-25131E7EBA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DCFDE5-CB4C-4F78-81CC-FA5062E420D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,30 @@
     <t>1800</t>
   </si>
   <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>season2</t>
+  </si>
+  <si>
+    <t>season3</t>
+  </si>
+  <si>
     <t>cold0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,22 +316,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>Winter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>winter0</t>
@@ -315,9 +331,10 @@
   </si>
   <si>
     <t>winter1</t>
-  </si>
-  <si>
-    <t>Winter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isActive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -705,7 +722,7 @@
     <col min="10" max="10" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,8 +762,11 @@
       <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -786,8 +806,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -827,8 +850,11 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -868,8 +894,11 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -909,8 +938,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -950,8 +982,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -991,8 +1026,11 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1032,8 +1070,11 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1073,8 +1114,11 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1114,8 +1158,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1155,8 +1202,11 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1196,8 +1246,11 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1237,8 +1290,11 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1278,8 +1334,11 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1319,8 +1378,11 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1360,8 +1422,11 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1401,8 +1466,11 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1442,8 +1510,11 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1483,8 +1554,11 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1524,13 +1598,16 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1542,7 +1619,7 @@
         <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -1565,13 +1642,16 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -1583,7 +1663,7 @@
         <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -1606,19 +1686,22 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>65</v>
@@ -1647,19 +1730,22 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>65</v>
@@ -1687,6 +1773,97 @@
       </c>
       <c r="M24">
         <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
